--- a/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
+++ b/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921C7F6E-B8F1-4712-A509-90F83BE8E45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B2565-FD22-46CA-B599-8833469D4806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="if else" sheetId="1" r:id="rId1"/>
+    <sheet name="list_empty" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>views\admin\pages\slider\list.blade.php</t>
+  </si>
+  <si>
+    <t>views\admin\templates\list_empty.blade.php</t>
+  </si>
+  <si>
+    <t>Access browser to check</t>
   </si>
 </sst>
 </file>
@@ -120,6 +127,143 @@
         <a:xfrm>
           <a:off x="609600" y="381000"/>
           <a:ext cx="9238095" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>94248</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB1F55D-1204-4AA5-A418-BDBD0352CAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8019048" cy="3123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160762</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CEEF9E-0FAE-464A-9F4C-CD65A5BCCD46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4000500"/>
+          <a:ext cx="9304762" cy="4409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>395623</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EE2DD2-238C-4EB3-80D4-B194EB99006C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8763001"/>
+          <a:ext cx="11368423" cy="4981574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -396,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
@@ -411,4 +555,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC93B29-FC4C-4121-8B5D-0F0B0EF0811D}">
+  <dimension ref="A2:A46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
+++ b/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B2565-FD22-46CA-B599-8833469D4806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C07C1A-B8F8-4B57-A892-BF4571A5F67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="if else" sheetId="1" r:id="rId1"/>
     <sheet name="list_empty" sheetId="2" r:id="rId2"/>
+    <sheet name="foreach" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>views\admin\pages\slider\list.blade.php</t>
   </si>
@@ -275,6 +276,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>265219</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>94405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFED980-FEC2-4186-A087-7EED5D02763C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11847619" cy="6761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>150456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BB8D1E-CD2A-4002-9265-CF575713564D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="7620000"/>
+          <a:ext cx="11401424" cy="5674956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -561,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC93B29-FC4C-4121-8B5D-0F0B0EF0811D}">
   <dimension ref="A2:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -586,4 +680,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4AC448-D280-42A5-82D4-28B7B60041D8}">
+  <dimension ref="A2:A40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
+++ b/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C07C1A-B8F8-4B57-A892-BF4571A5F67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1E1D7-38CA-490E-9381-1C10457A806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="if else" sheetId="1" r:id="rId1"/>
     <sheet name="list_empty" sheetId="2" r:id="rId2"/>
     <sheet name="foreach" sheetId="3" r:id="rId3"/>
+    <sheet name="showItemHistory" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>views\admin\pages\slider\list.blade.php</t>
   </si>
@@ -36,6 +37,12 @@
   </si>
   <si>
     <t>Access browser to check</t>
+  </si>
+  <si>
+    <t>config\zvn.php</t>
+  </si>
+  <si>
+    <t>app\Helpers\Template.php</t>
   </si>
 </sst>
 </file>
@@ -358,6 +365,187 @@
         <a:xfrm>
           <a:off x="609601" y="7620000"/>
           <a:ext cx="11401424" cy="5674956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541943</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BD6DEF-8DCD-4E06-8B8A-A64500BFAB97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7857143" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF81184F-65FF-44CE-8454-974DD3ED5729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5143500"/>
+          <a:ext cx="11800000" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>189028</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>132786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7494868B-0FCE-453F-8059-5BCC71272561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9144000"/>
+          <a:ext cx="11771428" cy="4514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>60599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE08FE62-9321-45B7-9463-56EE081FD9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14097001"/>
+          <a:ext cx="11229975" cy="5585098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -686,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4AC448-D280-42A5-82D4-28B7B60041D8}">
   <dimension ref="A2:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -706,4 +894,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB18BF9A-E6C3-4DDE-9C99-C84797F14D1C}">
+  <dimension ref="A2:A74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
+++ b/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1E1D7-38CA-490E-9381-1C10457A806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1956FCC-7F1B-42BA-A23B-D38CE3303447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="if else" sheetId="1" r:id="rId1"/>
     <sheet name="list_empty" sheetId="2" r:id="rId2"/>
     <sheet name="foreach" sheetId="3" r:id="rId3"/>
     <sheet name="showItemHistory" sheetId="4" r:id="rId4"/>
+    <sheet name="showItemStatus" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>views\admin\pages\slider\list.blade.php</t>
   </si>
@@ -546,6 +547,187 @@
         <a:xfrm>
           <a:off x="609600" y="14097001"/>
           <a:ext cx="11229975" cy="5585098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>341714</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BDDBF7-5289-4EB0-B138-EE9331A0D90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9485714" cy="4647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>185749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C643885-58F5-4F57-B317-DC7FEBD3CE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="11401425" cy="4186249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>146737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137FE6A1-5863-497E-8700-B8246E07F322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10096501"/>
+          <a:ext cx="11458575" cy="5671236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>132977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B426B7-ACD6-4F4C-B780-A7729DC10C72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="16192500"/>
+          <a:ext cx="11487150" cy="5276477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -900,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB18BF9A-E6C3-4DDE-9C99-C84797F14D1C}">
   <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
@@ -930,4 +1112,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D0AB0E-4B28-48DC-A764-9BE6EBB239D1}">
+  <dimension ref="A2:A85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
+++ b/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1956FCC-7F1B-42BA-A23B-D38CE3303447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95477547-4338-493F-A046-BA5B1781D42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="if else" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="foreach" sheetId="3" r:id="rId3"/>
     <sheet name="showItemHistory" sheetId="4" r:id="rId4"/>
     <sheet name="showItemStatus" sheetId="5" r:id="rId5"/>
+    <sheet name="showItemThumb" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>views\admin\pages\slider\list.blade.php</t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>app\Helpers\Template.php</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\slider\list.blade.php</t>
   </si>
 </sst>
 </file>
@@ -728,6 +732,143 @@
         <a:xfrm>
           <a:off x="609601" y="16192500"/>
           <a:ext cx="11487150" cy="5276477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>265219</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B311230A-F2AA-4DC8-BD61-677624F40257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11847619" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>118707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A020855-7F4B-4846-BCBF-1073C7756000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4381500"/>
+          <a:ext cx="11439525" cy="4500207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>84699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE7B1A8-BE03-4F42-B221-16F2EC617CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="9334501"/>
+          <a:ext cx="11487150" cy="5609198"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D0AB0E-4B28-48DC-A764-9BE6EBB239D1}">
   <dimension ref="A2:A85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -1148,4 +1289,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA10B702-7D65-4BAC-A713-91BE3C53938C}">
+  <dimension ref="A2:A49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
+++ b/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95477547-4338-493F-A046-BA5B1781D42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABD2CA1-2138-4A0F-B5D1-C84D7D86E73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="if else" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="showItemHistory" sheetId="4" r:id="rId4"/>
     <sheet name="showItemStatus" sheetId="5" r:id="rId5"/>
     <sheet name="showItemThumb" sheetId="6" r:id="rId6"/>
+    <sheet name="showButtonAction" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>views\admin\pages\slider\list.blade.php</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>resources\views\admin\pages\slider\list.blade.php</t>
+  </si>
+  <si>
+    <t>Access url to check</t>
   </si>
 </sst>
 </file>
@@ -869,6 +873,187 @@
         <a:xfrm>
           <a:off x="609601" y="9334501"/>
           <a:ext cx="11487150" cy="5609198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>369981</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F4C87A-3C5A-4A3A-85D4-AE72CA0E2FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11952381" cy="5485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>506537</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5417AE-D959-43B0-911A-1D8B6B750B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="6286501"/>
+          <a:ext cx="11479336" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>111271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7066EE24-4719-4B02-861D-51A1307CDD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11620501"/>
+          <a:ext cx="11915775" cy="5826270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>177791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2B0E5F-FD57-4B21-A77D-C3FD4604CEDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="17907000"/>
+          <a:ext cx="12039600" cy="4178291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1295,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA10B702-7D65-4BAC-A713-91BE3C53938C}">
   <dimension ref="A2:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -1320,4 +1505,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0A602E-AAE9-4B04-8036-32E8E0E625B1}">
+  <dimension ref="A2:A94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
+++ b/me-docs/9.Xay-dung-chuc-nang-hien-thi-danh-sach-Slider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABD2CA1-2138-4A0F-B5D1-C84D7D86E73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1955BAA-0F56-4613-A78A-32C904C5DCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="if else" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="showItemStatus" sheetId="5" r:id="rId5"/>
     <sheet name="showItemThumb" sheetId="6" r:id="rId6"/>
     <sheet name="showButtonAction" sheetId="7" r:id="rId7"/>
+    <sheet name="x_title" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>views\admin\pages\slider\list.blade.php</t>
   </si>
@@ -52,6 +53,12 @@
   </si>
   <si>
     <t>Access url to check</t>
+  </si>
+  <si>
+    <t>views\admin\templates\x_title.blade.php</t>
+  </si>
+  <si>
+    <t>views\admin\pages\slider\index.blade.php</t>
   </si>
 </sst>
 </file>
@@ -1054,6 +1061,143 @@
         <a:xfrm>
           <a:off x="609601" y="17907000"/>
           <a:ext cx="12039600" cy="4178291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>103467</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38114F1-BE86-4C30-9EFF-FCD5F5CA50EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10466667" cy="2523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>608228</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>103928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD76C2AC-1181-4212-88E0-BBBBC623D491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238500"/>
+          <a:ext cx="10971428" cy="6771428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>29151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084B000E-F0BD-49B1-A122-78F800BE7E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10477500"/>
+          <a:ext cx="11344275" cy="5172651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1511,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0A602E-AAE9-4B04-8036-32E8E0E625B1}">
   <dimension ref="A2:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
@@ -1541,4 +1685,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718B0F3-A743-43A8-AC36-BCC2B77AE40B}">
+  <dimension ref="A2:A55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>